--- a/module_openpyxl/statics/_result.xlsx
+++ b/module_openpyxl/statics/_result.xlsx
@@ -392,13 +392,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <f>SUM(B2:D2)</f>
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <f>SUM(B3:D3)</f>
@@ -440,13 +440,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
         <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <f>SUM(B4:D4)</f>
@@ -464,13 +464,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <f>SUM(B5:D5)</f>
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <f>SUM(B6:D6)</f>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>80</v>
+      </c>
+      <c r="C7" t="n">
         <v>65</v>
       </c>
-      <c r="C7" t="n">
-        <v>45</v>
-      </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <f>SUM(B7:D7)</f>
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
         <v>75</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60</v>
       </c>
       <c r="E8">
         <f>SUM(B8:D8)</f>
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <f>SUM(B9:D9)</f>
